--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.298911</v>
+        <v>0.8162995</v>
       </c>
       <c r="N2">
-        <v>0.5978220000000001</v>
+        <v>1.632599</v>
       </c>
       <c r="O2">
-        <v>0.2373987958417691</v>
+        <v>0.4163859685545002</v>
       </c>
       <c r="P2">
-        <v>0.1956794980733906</v>
+        <v>0.3921060449839048</v>
       </c>
       <c r="Q2">
-        <v>0.5231652413625001</v>
+        <v>1.360320669176</v>
       </c>
       <c r="R2">
-        <v>2.09266096545</v>
+        <v>5.441282676704</v>
       </c>
       <c r="S2">
-        <v>0.01447253196624705</v>
+        <v>0.03622047502821694</v>
       </c>
       <c r="T2">
-        <v>0.01023694948161497</v>
+        <v>0.02561410747925793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.728364</v>
       </c>
       <c r="O3">
-        <v>0.192825218358747</v>
+        <v>0.1238436585265702</v>
       </c>
       <c r="P3">
-        <v>0.238408593084107</v>
+        <v>0.1749332979798817</v>
       </c>
       <c r="Q3">
-        <v>0.42493666215</v>
+        <v>0.404593577024</v>
       </c>
       <c r="R3">
-        <v>2.5496199729</v>
+        <v>2.427561462144</v>
       </c>
       <c r="S3">
-        <v>0.01175519499456757</v>
+        <v>0.01077288016365407</v>
       </c>
       <c r="T3">
-        <v>0.01247231696429205</v>
+        <v>0.01142741958069448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,113 +667,113 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4233085</v>
+        <v>0.9013519999999999</v>
       </c>
       <c r="N4">
-        <v>0.846617</v>
+        <v>1.802704</v>
       </c>
       <c r="O4">
-        <v>0.3361968216947034</v>
+        <v>0.4597703729189296</v>
       </c>
       <c r="P4">
-        <v>0.2771152443710664</v>
+        <v>0.4329606570362134</v>
       </c>
       <c r="Q4">
-        <v>0.74089041076875</v>
+        <v>1.502056237696</v>
       </c>
       <c r="R4">
-        <v>2.963561643075</v>
+        <v>6.008224950783999</v>
       </c>
       <c r="S4">
-        <v>0.02049555151143346</v>
+        <v>0.03999438638347003</v>
       </c>
       <c r="T4">
-        <v>0.0144972507858132</v>
+        <v>0.02828291209861588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>3.198312</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1992763333333333</v>
+        <v>0.8162995</v>
       </c>
       <c r="N5">
-        <v>0.5978289999999999</v>
+        <v>1.632599</v>
       </c>
       <c r="O5">
-        <v>0.1582677170565697</v>
+        <v>0.4163859685545002</v>
       </c>
       <c r="P5">
-        <v>0.1956817893180863</v>
+        <v>0.3921060449839048</v>
       </c>
       <c r="Q5">
-        <v>0.3487809114625</v>
+        <v>2.610780486444</v>
       </c>
       <c r="R5">
-        <v>2.092685468775</v>
+        <v>15.664682918664</v>
       </c>
       <c r="S5">
-        <v>0.00964846761839868</v>
+        <v>0.06951574842326108</v>
       </c>
       <c r="T5">
-        <v>0.01023706934780653</v>
+        <v>0.07373939119630532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>3.198312</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09482533333333333</v>
+        <v>0.242788</v>
       </c>
       <c r="N6">
-        <v>0.284476</v>
+        <v>0.728364</v>
       </c>
       <c r="O6">
-        <v>0.07531144704821066</v>
+        <v>0.1238436585265702</v>
       </c>
       <c r="P6">
-        <v>0.09311487515334974</v>
+        <v>0.1749332979798817</v>
       </c>
       <c r="Q6">
-        <v>0.16596685435</v>
+        <v>0.776511773856</v>
       </c>
       <c r="R6">
-        <v>0.9958011260999999</v>
+        <v>6.988605964704001</v>
       </c>
       <c r="S6">
-        <v>0.00459120831242978</v>
+        <v>0.02067573179719786</v>
       </c>
       <c r="T6">
-        <v>0.00487129353006731</v>
+        <v>0.03289792406421034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I7">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J7">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.298911</v>
+        <v>0.9013519999999999</v>
       </c>
       <c r="N7">
-        <v>0.5978220000000001</v>
+        <v>1.802704</v>
       </c>
       <c r="O7">
-        <v>0.2373987958417691</v>
+        <v>0.4597703729189296</v>
       </c>
       <c r="P7">
-        <v>0.1956794980733906</v>
+        <v>0.4329606570362134</v>
       </c>
       <c r="Q7">
-        <v>0.9560106382320002</v>
+        <v>2.882804917824</v>
       </c>
       <c r="R7">
-        <v>5.736063829392001</v>
+        <v>17.296829506944</v>
       </c>
       <c r="S7">
-        <v>0.02644650949258688</v>
+        <v>0.07675878629449512</v>
       </c>
       <c r="T7">
-        <v>0.02805987047795765</v>
+        <v>0.08142250207622594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,60 +915,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.198312</v>
+        <v>2.617047</v>
       </c>
       <c r="H8">
-        <v>9.594936000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.242788</v>
+        <v>0.8162995</v>
       </c>
       <c r="N8">
-        <v>0.728364</v>
+        <v>1.632599</v>
       </c>
       <c r="O8">
-        <v>0.192825218358747</v>
+        <v>0.4163859685545002</v>
       </c>
       <c r="P8">
-        <v>0.238408593084107</v>
+        <v>0.3921060449839048</v>
       </c>
       <c r="Q8">
-        <v>0.776511773856</v>
+        <v>2.1362941575765</v>
       </c>
       <c r="R8">
-        <v>6.988605964704001</v>
+        <v>12.817764945459</v>
       </c>
       <c r="S8">
-        <v>0.02148095970602013</v>
+        <v>0.05688187420859821</v>
       </c>
       <c r="T8">
-        <v>0.03418709833496784</v>
+        <v>0.06033790715606146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.198312</v>
+        <v>2.617047</v>
       </c>
       <c r="H9">
-        <v>9.594936000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4233085</v>
+        <v>0.242788</v>
       </c>
       <c r="N9">
-        <v>0.846617</v>
+        <v>0.728364</v>
       </c>
       <c r="O9">
-        <v>0.3361968216947034</v>
+        <v>0.1238436585265702</v>
       </c>
       <c r="P9">
-        <v>0.2771152443710664</v>
+        <v>0.1749332979798817</v>
       </c>
       <c r="Q9">
-        <v>1.353872655252</v>
+        <v>0.6353876070359999</v>
       </c>
       <c r="R9">
-        <v>8.123235931511999</v>
+        <v>5.718488463324</v>
       </c>
       <c r="S9">
-        <v>0.03745272761304438</v>
+        <v>0.01691809988289487</v>
       </c>
       <c r="T9">
-        <v>0.03973751946973692</v>
+        <v>0.02691901649322188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.198312</v>
+        <v>2.617047</v>
       </c>
       <c r="H10">
-        <v>9.594936000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1992763333333333</v>
+        <v>0.9013519999999999</v>
       </c>
       <c r="N10">
-        <v>0.5978289999999999</v>
+        <v>1.802704</v>
       </c>
       <c r="O10">
-        <v>0.1582677170565697</v>
+        <v>0.4597703729189296</v>
       </c>
       <c r="P10">
-        <v>0.1956817893180863</v>
+        <v>0.4329606570362134</v>
       </c>
       <c r="Q10">
-        <v>0.637347888216</v>
+        <v>2.358880547544</v>
       </c>
       <c r="R10">
-        <v>5.736130993944</v>
+        <v>14.153283285264</v>
       </c>
       <c r="S10">
-        <v>0.01763121277285849</v>
+        <v>0.06280855382328226</v>
       </c>
       <c r="T10">
-        <v>0.02806019903577811</v>
+        <v>0.06662468039111907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.198312</v>
+        <v>4.784714</v>
       </c>
       <c r="H11">
-        <v>9.594936000000001</v>
+        <v>9.569428</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09482533333333333</v>
+        <v>0.8162995</v>
       </c>
       <c r="N11">
-        <v>0.284476</v>
+        <v>1.632599</v>
       </c>
       <c r="O11">
-        <v>0.07531144704821066</v>
+        <v>0.4163859685545002</v>
       </c>
       <c r="P11">
-        <v>0.09311487515334974</v>
+        <v>0.3921060449839048</v>
       </c>
       <c r="Q11">
-        <v>0.303281001504</v>
+        <v>3.905759645843</v>
       </c>
       <c r="R11">
-        <v>2.729529013536</v>
+        <v>15.623038583372</v>
       </c>
       <c r="S11">
-        <v>0.008389785180664862</v>
+        <v>0.1039964127018425</v>
       </c>
       <c r="T11">
-        <v>0.01335240207634962</v>
+        <v>0.07354335608042384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.564619666666667</v>
+        <v>4.784714</v>
       </c>
       <c r="H12">
-        <v>7.693859000000001</v>
+        <v>9.569428</v>
       </c>
       <c r="I12">
-        <v>0.0893289006778985</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J12">
-        <v>0.1149853408937705</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.298911</v>
+        <v>0.242788</v>
       </c>
       <c r="N12">
-        <v>0.5978220000000001</v>
+        <v>0.728364</v>
       </c>
       <c r="O12">
-        <v>0.2373987958417691</v>
+        <v>0.1238436585265702</v>
       </c>
       <c r="P12">
-        <v>0.1956794980733906</v>
+        <v>0.1749332979798817</v>
       </c>
       <c r="Q12">
-        <v>0.7665930291830001</v>
+        <v>1.161671142632</v>
       </c>
       <c r="R12">
-        <v>4.599558175098001</v>
+        <v>6.970026855792001</v>
       </c>
       <c r="S12">
-        <v>0.02120657345480209</v>
+        <v>0.03093114849029668</v>
       </c>
       <c r="T12">
-        <v>0.02250027379189072</v>
+        <v>0.03281046540403481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.564619666666667</v>
+        <v>4.784714</v>
       </c>
       <c r="H13">
-        <v>7.693859000000001</v>
+        <v>9.569428</v>
       </c>
       <c r="I13">
-        <v>0.0893289006778985</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J13">
-        <v>0.1149853408937705</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.242788</v>
+        <v>0.9013519999999999</v>
       </c>
       <c r="N13">
-        <v>0.728364</v>
+        <v>1.802704</v>
       </c>
       <c r="O13">
-        <v>0.192825218358747</v>
+        <v>0.4597703729189296</v>
       </c>
       <c r="P13">
-        <v>0.238408593084107</v>
+        <v>0.4329606570362134</v>
       </c>
       <c r="Q13">
-        <v>0.6226588796306667</v>
+        <v>4.312711533328</v>
       </c>
       <c r="R13">
-        <v>5.603929916676001</v>
+        <v>17.250846133312</v>
       </c>
       <c r="S13">
-        <v>0.01722486477896261</v>
+        <v>0.1148320862399537</v>
       </c>
       <c r="T13">
-        <v>0.02741349334778026</v>
+        <v>0.08120604152005752</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>14.697766</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4233085</v>
+        <v>0.8162995</v>
       </c>
       <c r="N14">
-        <v>0.846617</v>
+        <v>1.632599</v>
       </c>
       <c r="O14">
-        <v>0.3361968216947034</v>
+        <v>0.4163859685545002</v>
       </c>
       <c r="P14">
-        <v>0.2771152443710664</v>
+        <v>0.3921060449839048</v>
       </c>
       <c r="Q14">
-        <v>1.085625304167167</v>
+        <v>3.999259678972333</v>
       </c>
       <c r="R14">
-        <v>6.513751825003</v>
+        <v>23.995558073834</v>
       </c>
       <c r="S14">
-        <v>0.03003209249339132</v>
+        <v>0.1064859842358469</v>
       </c>
       <c r="T14">
-        <v>0.03186419084086758</v>
+        <v>0.1129558672184739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>14.697766</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1992763333333333</v>
+        <v>0.242788</v>
       </c>
       <c r="N15">
-        <v>0.5978289999999999</v>
+        <v>0.728364</v>
       </c>
       <c r="O15">
-        <v>0.1582677170565697</v>
+        <v>0.1238436585265702</v>
       </c>
       <c r="P15">
-        <v>0.1956817893180863</v>
+        <v>0.1749332979798817</v>
       </c>
       <c r="Q15">
-        <v>0.5110680035678888</v>
+        <v>1.189480403869333</v>
       </c>
       <c r="R15">
-        <v>4.599612032111</v>
+        <v>10.705323634824</v>
       </c>
       <c r="S15">
-        <v>0.01413788117746406</v>
+        <v>0.031671609673475</v>
       </c>
       <c r="T15">
-        <v>0.02250053725144313</v>
+        <v>0.05039387337044587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>14.697766</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09482533333333333</v>
+        <v>0.9013519999999999</v>
       </c>
       <c r="N16">
-        <v>0.284476</v>
+        <v>1.802704</v>
       </c>
       <c r="O16">
-        <v>0.07531144704821066</v>
+        <v>0.4597703729189296</v>
       </c>
       <c r="P16">
-        <v>0.09311487515334974</v>
+        <v>0.4329606570362134</v>
       </c>
       <c r="Q16">
-        <v>0.2431909147648889</v>
+        <v>4.415953593210666</v>
       </c>
       <c r="R16">
-        <v>2.188718232884</v>
+        <v>26.495721559264</v>
       </c>
       <c r="S16">
-        <v>0.006727488773278422</v>
+        <v>0.1175810531097337</v>
       </c>
       <c r="T16">
-        <v>0.0107068456617888</v>
+        <v>0.1247250510739084</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.4676725</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H17">
-        <v>34.935345</v>
+        <v>5.974493</v>
       </c>
       <c r="I17">
-        <v>0.6084208126870634</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J17">
-        <v>0.5221115377948153</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.298911</v>
+        <v>0.8162995</v>
       </c>
       <c r="N17">
-        <v>0.5978220000000001</v>
+        <v>1.632599</v>
       </c>
       <c r="O17">
-        <v>0.2373987958417691</v>
+        <v>0.4163859685545002</v>
       </c>
       <c r="P17">
-        <v>0.1956794980733906</v>
+        <v>0.3921060449839048</v>
       </c>
       <c r="Q17">
-        <v>5.2212794546475</v>
+        <v>1.625658549551167</v>
       </c>
       <c r="R17">
-        <v>20.88511781859</v>
+        <v>9.753951297306999</v>
       </c>
       <c r="S17">
-        <v>0.1444383682969794</v>
+        <v>0.0432854739567345</v>
       </c>
       <c r="T17">
-        <v>0.1021665236540155</v>
+        <v>0.04591541585338222</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.4676725</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H18">
-        <v>34.935345</v>
+        <v>5.974493</v>
       </c>
       <c r="I18">
-        <v>0.6084208126870634</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J18">
-        <v>0.5221115377948153</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.728364</v>
       </c>
       <c r="O18">
-        <v>0.192825218358747</v>
+        <v>0.1238436585265702</v>
       </c>
       <c r="P18">
-        <v>0.238408593084107</v>
+        <v>0.1749332979798817</v>
       </c>
       <c r="Q18">
-        <v>4.24094127093</v>
+        <v>0.4835117354946666</v>
       </c>
       <c r="R18">
-        <v>25.44564762558</v>
+        <v>4.351605619452</v>
       </c>
       <c r="S18">
-        <v>0.1173188760603893</v>
+        <v>0.01287418851905172</v>
       </c>
       <c r="T18">
-        <v>0.1244758771586415</v>
+        <v>0.02048459906727426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,796 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.4676725</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H19">
-        <v>34.935345</v>
+        <v>5.974493</v>
       </c>
       <c r="I19">
-        <v>0.6084208126870634</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J19">
-        <v>0.5221115377948153</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4233085</v>
+        <v>0.9013519999999999</v>
       </c>
       <c r="N19">
-        <v>0.846617</v>
+        <v>1.802704</v>
       </c>
       <c r="O19">
-        <v>0.3361968216947034</v>
+        <v>0.4597703729189296</v>
       </c>
       <c r="P19">
-        <v>0.2771152443710664</v>
+        <v>0.4329606570362134</v>
       </c>
       <c r="Q19">
-        <v>7.394214244466249</v>
+        <v>1.795040404845333</v>
       </c>
       <c r="R19">
-        <v>29.576856977865</v>
+        <v>10.770242429072</v>
       </c>
       <c r="S19">
-        <v>0.2045491434782992</v>
+        <v>0.04779550706799471</v>
       </c>
       <c r="T19">
-        <v>0.1446850663849635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>17.4676725</v>
-      </c>
-      <c r="H20">
-        <v>34.935345</v>
-      </c>
-      <c r="I20">
-        <v>0.6084208126870634</v>
-      </c>
-      <c r="J20">
-        <v>0.5221115377948153</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.1992763333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.5978289999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1582677170565697</v>
-      </c>
-      <c r="P20">
-        <v>0.1956817893180863</v>
-      </c>
-      <c r="Q20">
-        <v>3.480893727667499</v>
-      </c>
-      <c r="R20">
-        <v>20.885362366005</v>
-      </c>
-      <c r="S20">
-        <v>0.09629337303368435</v>
-      </c>
-      <c r="T20">
-        <v>0.1021677199393071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>17.4676725</v>
-      </c>
-      <c r="H21">
-        <v>34.935345</v>
-      </c>
-      <c r="I21">
-        <v>0.6084208126870634</v>
-      </c>
-      <c r="J21">
-        <v>0.5221115377948153</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.09482533333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.284476</v>
-      </c>
-      <c r="O21">
-        <v>0.07531144704821066</v>
-      </c>
-      <c r="P21">
-        <v>0.09311487515334974</v>
-      </c>
-      <c r="Q21">
-        <v>1.65637786737</v>
-      </c>
-      <c r="R21">
-        <v>9.938267204219999</v>
-      </c>
-      <c r="S21">
-        <v>0.04582105181771107</v>
-      </c>
-      <c r="T21">
-        <v>0.04861635065788767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.092757</v>
-      </c>
-      <c r="H22">
-        <v>3.278271</v>
-      </c>
-      <c r="I22">
-        <v>0.03806208881060012</v>
-      </c>
-      <c r="J22">
-        <v>0.04899402347731638</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.298911</v>
-      </c>
-      <c r="N22">
-        <v>0.5978220000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.2373987958417691</v>
-      </c>
-      <c r="P22">
-        <v>0.1956794980733906</v>
-      </c>
-      <c r="Q22">
-        <v>0.3266370876270001</v>
-      </c>
-      <c r="R22">
-        <v>1.959822525762</v>
-      </c>
-      <c r="S22">
-        <v>0.009035894050858941</v>
-      </c>
-      <c r="T22">
-        <v>0.009587125922637182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.092757</v>
-      </c>
-      <c r="H23">
-        <v>3.278271</v>
-      </c>
-      <c r="I23">
-        <v>0.03806208881060012</v>
-      </c>
-      <c r="J23">
-        <v>0.04899402347731638</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.242788</v>
-      </c>
-      <c r="N23">
-        <v>0.728364</v>
-      </c>
-      <c r="O23">
-        <v>0.192825218358747</v>
-      </c>
-      <c r="P23">
-        <v>0.238408593084107</v>
-      </c>
-      <c r="Q23">
-        <v>0.265308286516</v>
-      </c>
-      <c r="R23">
-        <v>2.387774578644</v>
-      </c>
-      <c r="S23">
-        <v>0.007339330586093989</v>
-      </c>
-      <c r="T23">
-        <v>0.01168059620675671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.092757</v>
-      </c>
-      <c r="H24">
-        <v>3.278271</v>
-      </c>
-      <c r="I24">
-        <v>0.03806208881060012</v>
-      </c>
-      <c r="J24">
-        <v>0.04899402347731638</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.4233085</v>
-      </c>
-      <c r="N24">
-        <v>0.846617</v>
-      </c>
-      <c r="O24">
-        <v>0.3361968216947034</v>
-      </c>
-      <c r="P24">
-        <v>0.2771152443710664</v>
-      </c>
-      <c r="Q24">
-        <v>0.4625733265345</v>
-      </c>
-      <c r="R24">
-        <v>2.775439959207</v>
-      </c>
-      <c r="S24">
-        <v>0.01279635328518529</v>
-      </c>
-      <c r="T24">
-        <v>0.01357699078863829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.092757</v>
-      </c>
-      <c r="H25">
-        <v>3.278271</v>
-      </c>
-      <c r="I25">
-        <v>0.03806208881060012</v>
-      </c>
-      <c r="J25">
-        <v>0.04899402347731638</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1992763333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.5978289999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1582677170565697</v>
-      </c>
-      <c r="P25">
-        <v>0.1956817893180863</v>
-      </c>
-      <c r="Q25">
-        <v>0.2177606081843333</v>
-      </c>
-      <c r="R25">
-        <v>1.959845473659</v>
-      </c>
-      <c r="S25">
-        <v>0.006023999902458088</v>
-      </c>
-      <c r="T25">
-        <v>0.009587238179933595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.092757</v>
-      </c>
-      <c r="H26">
-        <v>3.278271</v>
-      </c>
-      <c r="I26">
-        <v>0.03806208881060012</v>
-      </c>
-      <c r="J26">
-        <v>0.04899402347731638</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.09482533333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.284476</v>
-      </c>
-      <c r="O26">
-        <v>0.07531144704821066</v>
-      </c>
-      <c r="P26">
-        <v>0.09311487515334974</v>
-      </c>
-      <c r="Q26">
-        <v>0.1036210467773333</v>
-      </c>
-      <c r="R26">
-        <v>0.9325894209960001</v>
-      </c>
-      <c r="S26">
-        <v>0.002866510986003802</v>
-      </c>
-      <c r="T26">
-        <v>0.004562072379350601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.636255</v>
-      </c>
-      <c r="H27">
-        <v>7.908765000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.09182404865618671</v>
-      </c>
-      <c r="J27">
-        <v>0.1181971283297135</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.298911</v>
-      </c>
-      <c r="N27">
-        <v>0.5978220000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.2373987958417691</v>
-      </c>
-      <c r="P27">
-        <v>0.1956794980733906</v>
-      </c>
-      <c r="Q27">
-        <v>0.7880056183050002</v>
-      </c>
-      <c r="R27">
-        <v>4.728033709830001</v>
-      </c>
-      <c r="S27">
-        <v>0.02179891858029474</v>
-      </c>
-      <c r="T27">
-        <v>0.02312875474527446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.636255</v>
-      </c>
-      <c r="H28">
-        <v>7.908765000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.09182404865618671</v>
-      </c>
-      <c r="J28">
-        <v>0.1181971283297135</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.242788</v>
-      </c>
-      <c r="N28">
-        <v>0.728364</v>
-      </c>
-      <c r="O28">
-        <v>0.192825218358747</v>
-      </c>
-      <c r="P28">
-        <v>0.238408593084107</v>
-      </c>
-      <c r="Q28">
-        <v>0.64005107894</v>
-      </c>
-      <c r="R28">
-        <v>5.760459710460001</v>
-      </c>
-      <c r="S28">
-        <v>0.01770599223271341</v>
-      </c>
-      <c r="T28">
-        <v>0.02817921107166863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.636255</v>
-      </c>
-      <c r="H29">
-        <v>7.908765000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.09182404865618671</v>
-      </c>
-      <c r="J29">
-        <v>0.1181971283297135</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.4233085</v>
-      </c>
-      <c r="N29">
-        <v>0.846617</v>
-      </c>
-      <c r="O29">
-        <v>0.3361968216947034</v>
-      </c>
-      <c r="P29">
-        <v>0.2771152443710664</v>
-      </c>
-      <c r="Q29">
-        <v>1.1159491496675</v>
-      </c>
-      <c r="R29">
-        <v>6.695694898005001</v>
-      </c>
-      <c r="S29">
-        <v>0.03087095331334978</v>
-      </c>
-      <c r="T29">
-        <v>0.03275422610104684</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.636255</v>
-      </c>
-      <c r="H30">
-        <v>7.908765000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.09182404865618671</v>
-      </c>
-      <c r="J30">
-        <v>0.1181971283297135</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.1992763333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.5978289999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.1582677170565697</v>
-      </c>
-      <c r="P30">
-        <v>0.1956817893180863</v>
-      </c>
-      <c r="Q30">
-        <v>0.5253432301316666</v>
-      </c>
-      <c r="R30">
-        <v>4.728089071185</v>
-      </c>
-      <c r="S30">
-        <v>0.01453278255170605</v>
-      </c>
-      <c r="T30">
-        <v>0.0231290255638178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.636255</v>
-      </c>
-      <c r="H31">
-        <v>7.908765000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.09182404865618671</v>
-      </c>
-      <c r="J31">
-        <v>0.1181971283297135</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.09482533333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.284476</v>
-      </c>
-      <c r="O31">
-        <v>0.07531144704821066</v>
-      </c>
-      <c r="P31">
-        <v>0.09311487515334974</v>
-      </c>
-      <c r="Q31">
-        <v>0.2499837591266667</v>
-      </c>
-      <c r="R31">
-        <v>2.24985383214</v>
-      </c>
-      <c r="S31">
-        <v>0.006915401978122724</v>
-      </c>
-      <c r="T31">
-        <v>0.01100591084790573</v>
+        <v>0.05069946987628654</v>
       </c>
     </row>
   </sheetData>
